--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>hash</t>
   </si>
@@ -28,457 +28,310 @@
     <t>usd</t>
   </si>
   <si>
-    <t>81311f01cb45903aa6d6cc5823435c57e449f107382c65f4e10312c61da52dc9</t>
-  </si>
-  <si>
-    <t>0f5de06e76f046b8ebf20b3aca0ef49eb0fa00dd787be070419f1252c8cbeba7</t>
-  </si>
-  <si>
-    <t>a529b4dc84c62ef10c29a555940ed59f2b4a29eb20afb0a37eaae9886430a4a1</t>
-  </si>
-  <si>
-    <t>c2f3d40ac96bac0a85ae4a4dc2f0b68711529b742c917da5b89951244e31da31</t>
-  </si>
-  <si>
-    <t>25f98f1cd1b74b49963053738caafed82ff41cd44d8ef920851581b872bac72f</t>
-  </si>
-  <si>
-    <t>488e7a7c1fb8ae69cd0ce5589ff3d371a89f7dad40d9fed8a7228e86fbd4f323</t>
-  </si>
-  <si>
-    <t>2c9d57c0654368806418fd9eff45e450e6bda5319798198d21e2256d24e1740d</t>
-  </si>
-  <si>
-    <t>28e987d726a48fe8bedc1cb40e3a89c3b9ff24ff4042a6957273db9bf43f040b</t>
-  </si>
-  <si>
-    <t>bc11c3d08649c2f127cfdbd6f0bcac3a6b7d2626364e0526cf9d1e671634149f</t>
-  </si>
-  <si>
-    <t>a8ce7f996ce99e74148436f4bcf875160e6d4968e655cb8e846f36aa9bcc69db</t>
-  </si>
-  <si>
-    <t>516559de3455e9986b215667a8c19890cb3b9cd203a37bc045550a96f041eef3</t>
-  </si>
-  <si>
-    <t>a114529e8af68fa13ed0b87980aa7597b7ccb0ae87d26975d39c60a2d7e09d77</t>
-  </si>
-  <si>
-    <t>56fbb0e0238a43c4a64acc1b9c00efa8795cd947b3932a228d04dc008b2bc8ef</t>
-  </si>
-  <si>
-    <t>febbcf605a8687938b8a6cd7999a2701cbd36de9fe631d368320a54c07da0a30</t>
-  </si>
-  <si>
-    <t>7b5a16820e1b56c884497802244b8fbf756071b8a07e240b192892630c352e93</t>
-  </si>
-  <si>
-    <t>9b4c1f6d15198dd18b326d892b5c6a8332dfbc5e3368979b3cc5d8a3cb6fa46a</t>
-  </si>
-  <si>
-    <t>39f1599830c72b4f1a7c8146a71603b616f94449082c105aaad2c573a66d0054</t>
-  </si>
-  <si>
-    <t>bad661ee15aef9cdbe32c78354fe86a6d01305c56a163076a6ca8f542a8e5b11</t>
-  </si>
-  <si>
-    <t>e4201637d01799f3b0b01fe5f3b31f0eafb6f5bd06f097ac5d8f1ef973f22a4d</t>
-  </si>
-  <si>
-    <t>49c2456eef57a9c78bbbd32f48b2b7aa22f8deef09a88ec5acd6528340921e49</t>
-  </si>
-  <si>
-    <t>d987e8dce2e655a90f4c746037efc64fea3c548fd109beb876dd0b443979b5ef</t>
-  </si>
-  <si>
-    <t>ff61aba78ebc10232a7059a7606de2531a475ae32f3e6b7ce3d2f79a6c6d8ca2</t>
-  </si>
-  <si>
-    <t>48c1352ea7ed09ea86d976ab8d352963ddcd087dbae87017ea9e430228d5cd7c</t>
-  </si>
-  <si>
-    <t>c0e07ef1568e8edde8020465dea1ec91d81f7b957140e71a2ee14ace9f6ee364</t>
-  </si>
-  <si>
-    <t>b505a2c8c935180ebe9b2e3669c73f7dc55398095ec6b21c12ae7d098f88ffd6</t>
-  </si>
-  <si>
-    <t>ab3b44b9aa7e6eab748e91ec03b96acf5ca3ba7ddec52f2f0d865cf672b83f6c</t>
-  </si>
-  <si>
-    <t>1f439f2565ff6e35784459f0c81d8ee052d75070fea96626d33e3160f1401d80</t>
-  </si>
-  <si>
-    <t>30b3ebc0420689e558c9858858b4214b34ac0297aad87700a9f03e908cbc867c</t>
-  </si>
-  <si>
-    <t>fb9eaa7cb4f16bf7ed29ef022dd669dc33d8be0bfbb48aa996ed3a71c3760f4e</t>
-  </si>
-  <si>
-    <t>f84cc650c66d64a89b34337d6c7b517cb789d4f6895831b09c639356fb543f46</t>
-  </si>
-  <si>
-    <t>20b15660dc426f1660a1e6089b9e45baa7c7b8dab213813e734dc0c240e43eee</t>
-  </si>
-  <si>
-    <t>cd604a52ed6397db1e117f0e2dd0d2f7bc8beeefa3d5f64b262d076809414acb</t>
-  </si>
-  <si>
-    <t>45382140b92e7b21ca4516bbe21c22cf71d5f84abbccb9fe2e8be0576a16743a</t>
-  </si>
-  <si>
-    <t>180b7631b781944562244f2252a2d3435c7df690a6d50621b51336ec87d308ea</t>
-  </si>
-  <si>
-    <t>4754c6274d8eab2bd8bcc2da00451ca00ba623f66d05619cdabefcf5848b5e53</t>
-  </si>
-  <si>
-    <t>0ddc07bc173349e3937e447461bce2a3107415a989f8dac2b43ec219d947a221</t>
-  </si>
-  <si>
-    <t>3cba610d8472801028ecc2e379d49cf5cb26019f5b546ee7bc32f0f15808df81</t>
-  </si>
-  <si>
-    <t>6feb26d943d5111adfae4911abc06efc302071dddeb44952cd8930b28d30d134</t>
-  </si>
-  <si>
-    <t>9c0f9ea17e90c82a61d35c1740ed5cabe513b7c9c74b0def742b93b4e2158eff</t>
-  </si>
-  <si>
-    <t>b3184357eeaed1c8cac4fc7e9325c45dc8aec1d1bca352593819574c11adca96</t>
-  </si>
-  <si>
-    <t>ff3b36f6dacb11d4316780a4728d189f00089250e0a84f19a5e21540615ae58a</t>
-  </si>
-  <si>
-    <t>c6c4d9dd4f2e2e4412b9df36303e2991a1c4ef65fa3fe851c017774936d9495b</t>
-  </si>
-  <si>
-    <t>2c1b1b02c1c778dc8f7642f3d5e4dbf14d2a382bb4d09420e3d7f0f4aac07f56</t>
-  </si>
-  <si>
-    <t>45e8aab759287dcc07961f7e58bbba842881ed2633f2389bd3688a9e3ed65f42</t>
-  </si>
-  <si>
-    <t>2d0acd9eb0b9c6e066b7cbfcc8cc10b948d49e73dd21eee2dde27374fb469ed7</t>
-  </si>
-  <si>
-    <t>b2c66225b54a2d585fe039134ff146417d7b6bfbdc9d107454a15206c31393b0</t>
-  </si>
-  <si>
-    <t>d994a5124a63441a68063ef4fb6e44d98c01f3f9dc6cd3454d1acee1705e6a8d</t>
-  </si>
-  <si>
-    <t>42894c1cc1a81736d250c6082b107353eaf6385a58c535327c2b67d1fc645fee</t>
-  </si>
-  <si>
-    <t>87bd08153f56f147ccd519fe8f6f1059b17e377ffedf436a1b088a65f6d2b7b5</t>
-  </si>
-  <si>
-    <t>cbd010372bb03b2af74ccde9c96dc190cb0aec20422b98b6f343a1c5793b37ba</t>
-  </si>
-  <si>
-    <t>23:40</t>
-  </si>
-  <si>
-    <t>0.06521107 BTC</t>
-  </si>
-  <si>
-    <t>0.10259872 BTC</t>
-  </si>
-  <si>
-    <t>0.00101842 BTC</t>
-  </si>
-  <si>
-    <t>0.01099846 BTC</t>
-  </si>
-  <si>
-    <t>0.00031536 BTC</t>
-  </si>
-  <si>
-    <t>2.26354221 BTC</t>
-  </si>
-  <si>
-    <t>12.55960624 BTC</t>
-  </si>
-  <si>
-    <t>0.05000000 BTC</t>
-  </si>
-  <si>
-    <t>0.00432103 BTC</t>
-  </si>
-  <si>
-    <t>2.17864064 BTC</t>
-  </si>
-  <si>
-    <t>0.00827360 BTC</t>
-  </si>
-  <si>
-    <t>0.01666504 BTC</t>
-  </si>
-  <si>
-    <t>0.29998566 BTC</t>
-  </si>
-  <si>
-    <t>0.00632570 BTC</t>
-  </si>
-  <si>
-    <t>0.62039655 BTC</t>
-  </si>
-  <si>
-    <t>0.00094311 BTC</t>
-  </si>
-  <si>
-    <t>0.00021346 BTC</t>
-  </si>
-  <si>
-    <t>0.00534604 BTC</t>
-  </si>
-  <si>
-    <t>0.03650094 BTC</t>
-  </si>
-  <si>
-    <t>0.01236656 BTC</t>
-  </si>
-  <si>
-    <t>0.00240933 BTC</t>
-  </si>
-  <si>
-    <t>0.00436194 BTC</t>
-  </si>
-  <si>
-    <t>1.20292997 BTC</t>
-  </si>
-  <si>
-    <t>0.07342296 BTC</t>
-  </si>
-  <si>
-    <t>0.00393332 BTC</t>
-  </si>
-  <si>
-    <t>0.02196932 BTC</t>
-  </si>
-  <si>
-    <t>0.00192819 BTC</t>
-  </si>
-  <si>
-    <t>0.00205548 BTC</t>
-  </si>
-  <si>
-    <t>1.69988500 BTC</t>
-  </si>
-  <si>
-    <t>0.00501456 BTC</t>
-  </si>
-  <si>
-    <t>0.01078291 BTC</t>
-  </si>
-  <si>
-    <t>0.00058527 BTC</t>
-  </si>
-  <si>
-    <t>0.00004800 BTC</t>
-  </si>
-  <si>
-    <t>0.03584313 BTC</t>
-  </si>
-  <si>
-    <t>0.27552818 BTC</t>
-  </si>
-  <si>
-    <t>0.09296687 BTC</t>
-  </si>
-  <si>
-    <t>0.00121688 BTC</t>
-  </si>
-  <si>
-    <t>0.17232233 BTC</t>
-  </si>
-  <si>
-    <t>1.25123020 BTC</t>
-  </si>
-  <si>
-    <t>0.00206822 BTC</t>
-  </si>
-  <si>
-    <t>1.14179668 BTC</t>
-  </si>
-  <si>
-    <t>0.13721340 BTC</t>
-  </si>
-  <si>
-    <t>0.00012988 BTC</t>
-  </si>
-  <si>
-    <t>0.52257386 BTC</t>
-  </si>
-  <si>
-    <t>0.00072737 BTC</t>
-  </si>
-  <si>
-    <t>4.99990760 BTC</t>
-  </si>
-  <si>
-    <t>0.01224867 BTC</t>
-  </si>
-  <si>
-    <t>0.07798697 BTC</t>
-  </si>
-  <si>
-    <t>0.04131373 BTC</t>
-  </si>
-  <si>
-    <t>0.00099861 BTC</t>
-  </si>
-  <si>
-    <t>$2,507.48</t>
-  </si>
-  <si>
-    <t>$3,945.09</t>
-  </si>
-  <si>
-    <t>$39.16</t>
-  </si>
-  <si>
-    <t>$422.91</t>
-  </si>
-  <si>
-    <t>$12.13</t>
-  </si>
-  <si>
-    <t>$87,037.02</t>
-  </si>
-  <si>
-    <t>$482,938.09</t>
-  </si>
-  <si>
-    <t>$1,922.58</t>
-  </si>
-  <si>
-    <t>$166.15</t>
-  </si>
-  <si>
-    <t>$83,772.41</t>
-  </si>
-  <si>
-    <t>$318.13</t>
-  </si>
-  <si>
-    <t>$640.80</t>
-  </si>
-  <si>
-    <t>$11,534.96</t>
-  </si>
-  <si>
-    <t>$243.23</t>
-  </si>
-  <si>
-    <t>$23,855.30</t>
-  </si>
-  <si>
-    <t>$36.26</t>
-  </si>
-  <si>
-    <t>$8.21</t>
-  </si>
-  <si>
-    <t>$205.56</t>
-  </si>
-  <si>
-    <t>$1,403.52</t>
-  </si>
-  <si>
-    <t>$475.52</t>
-  </si>
-  <si>
-    <t>$92.64</t>
-  </si>
-  <si>
-    <t>$167.72</t>
-  </si>
-  <si>
-    <t>$46,254.69</t>
-  </si>
-  <si>
-    <t>$2,823.24</t>
-  </si>
-  <si>
-    <t>$151.24</t>
-  </si>
-  <si>
-    <t>$844.76</t>
-  </si>
-  <si>
-    <t>$74.14</t>
-  </si>
-  <si>
-    <t>$79.04</t>
-  </si>
-  <si>
-    <t>$65,363.45</t>
-  </si>
-  <si>
-    <t>$192.82</t>
-  </si>
-  <si>
-    <t>$414.62</t>
-  </si>
-  <si>
-    <t>$22.50</t>
-  </si>
-  <si>
-    <t>$1.85</t>
-  </si>
-  <si>
-    <t>$1,378.23</t>
-  </si>
-  <si>
-    <t>$10,594.52</t>
-  </si>
-  <si>
-    <t>$3,574.73</t>
-  </si>
-  <si>
-    <t>$46.79</t>
-  </si>
-  <si>
-    <t>$6,626.08</t>
-  </si>
-  <si>
-    <t>$48,111.92</t>
-  </si>
-  <si>
-    <t>$79.53</t>
-  </si>
-  <si>
-    <t>$43,904.01</t>
-  </si>
-  <si>
-    <t>$5,276.09</t>
-  </si>
-  <si>
-    <t>$4.99</t>
-  </si>
-  <si>
-    <t>$20,093.85</t>
-  </si>
-  <si>
-    <t>$27.97</t>
-  </si>
-  <si>
-    <t>$192,254.90</t>
-  </si>
-  <si>
-    <t>$470.98</t>
-  </si>
-  <si>
-    <t>$2,998.73</t>
-  </si>
-  <si>
-    <t>$1,588.58</t>
-  </si>
-  <si>
-    <t>$38.40</t>
+    <t>b958a4ec1152461e8fc925e820ba02fa0eaf8715611a0e6580f743d78f6feee7</t>
+  </si>
+  <si>
+    <t>95a328e83eb1f94f089c995412288d5c0b1192fb4cb3ea4dc0aee90a2f6beace</t>
+  </si>
+  <si>
+    <t>9367fce6c20a9205f758ece5d68c29cfc1885219ea8b38b7cc7fcc9451ba565c</t>
+  </si>
+  <si>
+    <t>f3b4501eb5ea79688f0baa06e9bf05264a5b467e20ba11877cb224d755a04b4c</t>
+  </si>
+  <si>
+    <t>f2d0d4c1590acbb6273cbf92f789761d94ef46dcfa432efca6b9e7b022e1641f</t>
+  </si>
+  <si>
+    <t>b3243c02c3dd95ff4d0e395502492a3e84c901af5674ee113b2a4a95060e9615</t>
+  </si>
+  <si>
+    <t>23ed67f61592cce6cdf0c6101815c5089ef89c8a5c3a6e7a3918a71e6d2d8908</t>
+  </si>
+  <si>
+    <t>b2937bef176c965c1f09c05a97d8c58fcaa69213b25b77a77e172c84e63238f1</t>
+  </si>
+  <si>
+    <t>4b5725f4a96e59dc5a02c8ec4b875d3abc227480c1305f4c1d3a4cd5c2ece395</t>
+  </si>
+  <si>
+    <t>3c923da12a63ff238041b8f32bd4c822a41d76cfa4711f3e2e8cae4ec7c20073</t>
+  </si>
+  <si>
+    <t>299b553b5053b39ee387b66cedd3a56e136b9b53c3169418a9302a85c3760b3e</t>
+  </si>
+  <si>
+    <t>48ab475b9d29008e2336116db5ecdaebb1d25a05b331cd4decacd36fc198c620</t>
+  </si>
+  <si>
+    <t>d32e51ece149de6ea962e98f761ce6a87079ee34a76ded7d6014706444ee7c8b</t>
+  </si>
+  <si>
+    <t>2b288d9b478df41c7b5b8e0bafa10935c13a382f5f34f655197aa138de7bcb89</t>
+  </si>
+  <si>
+    <t>43021af2f65beadc296811be830edd9b84922cf1459f232aed514edcbc2be2a9</t>
+  </si>
+  <si>
+    <t>df5fb323c4fc01cb5b04bdf9e74ba0709b192e7faf263cfb71a96716643e559f</t>
+  </si>
+  <si>
+    <t>4622fbc05c0560e667eb31529c97141c9d52d42fc1b478e2dffa9dd2b6855796</t>
+  </si>
+  <si>
+    <t>dd2381f72c7edc6b96bd3649d7230b156124400c06963126daee4cc3ca1e1130</t>
+  </si>
+  <si>
+    <t>bb3b3611ac079c83970bfda71a78e025e132435c5fe8c1800b6bd820d94c32c3</t>
+  </si>
+  <si>
+    <t>46f9556ef99e2ade085bc443156e1c939cdd1f03dc554d55d75768b827130342</t>
+  </si>
+  <si>
+    <t>8acd0114b16df76118b3f6d33c1d7d3f065b7c42a34110f80c8948c1fad9adf9</t>
+  </si>
+  <si>
+    <t>7670849bc851d103aaa7c4caca1e750cc66c9f9829ce8996fcda47fe2801f02a</t>
+  </si>
+  <si>
+    <t>640d8c85da2b8d039f50f7cc4acf34c92bba29e334ac275a156b94a3d481ed27</t>
+  </si>
+  <si>
+    <t>faa18daabb9ba127d84b8f31a2925c4eb48a5aeb243bb15120789211961300c3</t>
+  </si>
+  <si>
+    <t>f64f64cb6fe16ec898b9a7c0f5162583ebd272f05837aae0a590d10710f0a989</t>
+  </si>
+  <si>
+    <t>7d8308897f8ea0c67e0c94d9d743a1082615582be3e7d7311682deb9f3206939</t>
+  </si>
+  <si>
+    <t>d032ad78d8ff1fb267a46ffd5385c3f26b35b29616ee5b984ec5b6c25954f615</t>
+  </si>
+  <si>
+    <t>e64722013d3521bdbb38c73c639d6ddd7677521559edf194ab05103eb1437218</t>
+  </si>
+  <si>
+    <t>1b8c6efbeb374303b614bf3e807f06f34cf92c48407df25c3e1143693ffb91b1</t>
+  </si>
+  <si>
+    <t>de22848866d69285f4ac6cbfd663eb104b85f8e36d1b433be3d81ba7aa60c7ec</t>
+  </si>
+  <si>
+    <t>d51854a8e96a8be3346c5340bf8d417470c983d66166c727bf52a24f238aca3b</t>
+  </si>
+  <si>
+    <t>1cbb6e3316f4b087b7ea5963ce062a5b16e70c89baa30fbf115b649de0426a2f</t>
+  </si>
+  <si>
+    <t>e471f7fd103ba3e419d218a13c8e6c9bc467fcced68cb27d9aee3199410ca7ee</t>
+  </si>
+  <si>
+    <t>acf12c2329f3afdb270195b4e47d458902f40bb6b1598876bee98cb7d69dfc7b</t>
+  </si>
+  <si>
+    <t>5592117b77801182713056a18f7365326b965604f15a5303f56965c2613f483b</t>
+  </si>
+  <si>
+    <t>a7b514ea16cc70ed86fe73b7ee4fe42ae551be0850f169a616eb15624a0d1c64</t>
+  </si>
+  <si>
+    <t>9efa80beb4fd5e2510d88a467b08eed1c97be2bef0e614548153bc058bf37807</t>
+  </si>
+  <si>
+    <t>d8c1498aaa03bba527b355a87c17fce2d47efa84156d39f5ccd251127f20bdc4</t>
+  </si>
+  <si>
+    <t>48105edb7d35d293ab5520ce3146a691e2839308d77f2154fde157e3db81a6aa</t>
+  </si>
+  <si>
+    <t>6dc474628cd8766948557e7a39d552add26bf19f4d85bf3a0f20894573d4df7f</t>
+  </si>
+  <si>
+    <t>58eb86c66f5080ae8dc8846cad9049af6d585605000912ba06750597c0a4277d</t>
+  </si>
+  <si>
+    <t>88a7afd7ade4535d2dfbbca1e5b7ddf59ad6ba74a1cd5fd9138dc4c4eead3aaf</t>
+  </si>
+  <si>
+    <t>1fd22ae94ac337c0347bb95114a559cd945580761b275fc7f33b199e94ec899a</t>
+  </si>
+  <si>
+    <t>927e2cc225373a972761f067ab9ad85f84a7bd3bca39f1ce4951445f2c7170b2</t>
+  </si>
+  <si>
+    <t>e1ec19a52143117e2f790669649d464a52261f1099d7c0d2d8cc094c49fa5531</t>
+  </si>
+  <si>
+    <t>f6c57f7e66a0426d91c9b185ec9ed46a77e743807dd1d328b48c285a34d7bd0f</t>
+  </si>
+  <si>
+    <t>2c832e623bad58d7a3e96e0f60ad5b792ab67baa036157a2d4b2e22dc44429cd</t>
+  </si>
+  <si>
+    <t>8e90907fead55ab815d6075c1e5df7f3a3651d0aae5db0542ee5b8ab94c78bbf</t>
+  </si>
+  <si>
+    <t>06e9f0cd183129be7ad228ab8c8b580b6b39d29812530d611b50a6d9e2d02576</t>
+  </si>
+  <si>
+    <t>1f252c170123074311d12e6879554bf2d2aa03e80c534017f4a6ffbaa18e1521</t>
+  </si>
+  <si>
+    <t>00:42</t>
+  </si>
+  <si>
+    <t>00:41</t>
+  </si>
+  <si>
+    <t>$646.82</t>
+  </si>
+  <si>
+    <t>$1,792.58</t>
+  </si>
+  <si>
+    <t>$299.92</t>
+  </si>
+  <si>
+    <t>$1,208.40</t>
+  </si>
+  <si>
+    <t>$141.24</t>
+  </si>
+  <si>
+    <t>$59,453.32</t>
+  </si>
+  <si>
+    <t>$110.56</t>
+  </si>
+  <si>
+    <t>$1,923.67</t>
+  </si>
+  <si>
+    <t>$7,699.05</t>
+  </si>
+  <si>
+    <t>$90.27</t>
+  </si>
+  <si>
+    <t>$85.73</t>
+  </si>
+  <si>
+    <t>$107.91</t>
+  </si>
+  <si>
+    <t>$3,390.74</t>
+  </si>
+  <si>
+    <t>$1,903.09</t>
+  </si>
+  <si>
+    <t>$1,141,692.06</t>
+  </si>
+  <si>
+    <t>$527,944.60</t>
+  </si>
+  <si>
+    <t>$32.83</t>
+  </si>
+  <si>
+    <t>$1,340.86</t>
+  </si>
+  <si>
+    <t>$279,572.22</t>
+  </si>
+  <si>
+    <t>$1,071.78</t>
+  </si>
+  <si>
+    <t>$193.51</t>
+  </si>
+  <si>
+    <t>$151.00</t>
+  </si>
+  <si>
+    <t>$2,135.66</t>
+  </si>
+  <si>
+    <t>$126,895.52</t>
+  </si>
+  <si>
+    <t>$7,355.06</t>
+  </si>
+  <si>
+    <t>$67.45</t>
+  </si>
+  <si>
+    <t>$1,862.06</t>
+  </si>
+  <si>
+    <t>$0.74</t>
+  </si>
+  <si>
+    <t>$4,635.27</t>
+  </si>
+  <si>
+    <t>$10,126.10</t>
+  </si>
+  <si>
+    <t>$22.76</t>
+  </si>
+  <si>
+    <t>$339.20</t>
+  </si>
+  <si>
+    <t>$47.45</t>
+  </si>
+  <si>
+    <t>$2,920.45</t>
+  </si>
+  <si>
+    <t>$9,733.11</t>
+  </si>
+  <si>
+    <t>$311.81</t>
+  </si>
+  <si>
+    <t>$148.51</t>
+  </si>
+  <si>
+    <t>$214.31</t>
+  </si>
+  <si>
+    <t>$183,002.67</t>
+  </si>
+  <si>
+    <t>$5,517,870.66</t>
+  </si>
+  <si>
+    <t>$74,410.21</t>
+  </si>
+  <si>
+    <t>$127.66</t>
+  </si>
+  <si>
+    <t>$489.04</t>
+  </si>
+  <si>
+    <t>$20,619.63</t>
+  </si>
+  <si>
+    <t>$39.68</t>
+  </si>
+  <si>
+    <t>$1,972.58</t>
+  </si>
+  <si>
+    <t>$85,097.17</t>
+  </si>
+  <si>
+    <t>$4,210.48</t>
+  </si>
+  <si>
+    <t>$535,117.98</t>
+  </si>
+  <si>
+    <t>$5,983.13</t>
   </si>
 </sst>
 </file>
@@ -863,11 +716,11 @@
       <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
+      <c r="C2">
+        <v>1.935E-05</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -877,11 +730,11 @@
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
+      <c r="C3">
+        <v>0.00059138</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -891,11 +744,11 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
+      <c r="C4">
+        <v>0.00085311</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -905,11 +758,11 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
+      <c r="C5">
+        <v>0.00103118</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -919,11 +772,11 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
+      <c r="C6">
+        <v>0.00123312</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -933,11 +786,11 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
+      <c r="C7">
+        <v>0.00175291</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -947,11 +800,11 @@
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
+      <c r="C8">
+        <v>0.00222796</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -961,11 +814,11 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
+      <c r="C9">
+        <v>0.00234574</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -975,11 +828,11 @@
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>63</v>
+      <c r="C10">
+        <v>0.00280433</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -989,11 +842,11 @@
       <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>64</v>
+      <c r="C11">
+        <v>0.00287319</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1003,11 +856,11 @@
       <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>65</v>
+      <c r="C12">
+        <v>0.00331757</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1017,11 +870,11 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>66</v>
+      <c r="C13">
+        <v>0.00367052</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1031,11 +884,11 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
-        <v>67</v>
+      <c r="C14">
+        <v>0.00385944</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1045,11 +898,11 @@
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
+      <c r="C15">
+        <v>0.00392416</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1059,11 +912,11 @@
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
+      <c r="C16">
+        <v>0.00502869</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1073,11 +926,11 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
+      <c r="C17">
+        <v>0.00556941</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1087,11 +940,11 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>71</v>
+      <c r="C18">
+        <v>0.007794</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1101,11 +954,11 @@
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
+      <c r="C19">
+        <v>0.00810315</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1115,11 +968,11 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
-        <v>73</v>
+      <c r="C20">
+        <v>0.00881497</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1129,11 +982,11 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>74</v>
+      <c r="C21">
+        <v>0.01270875</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1143,11 +996,11 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>75</v>
+      <c r="C22">
+        <v>0.01680899</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1157,11 +1010,11 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>76</v>
+      <c r="C23">
+        <v>0.02785273</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1171,11 +1024,11 @@
       <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
+      <c r="C24">
+        <v>0.03140296</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1185,11 +1038,11 @@
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
+      <c r="C25">
+        <v>0.03484518</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1199,11 +1052,11 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>79</v>
+      <c r="C26">
+        <v>0.04658429</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1213,11 +1066,11 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>80</v>
+      <c r="C27">
+        <v>0.04838972</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1227,11 +1080,11 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
+      <c r="C28">
+        <v>0.04945613</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1241,11 +1094,11 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="C29">
+        <v>0.0499909</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1255,11 +1108,11 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" t="s">
-        <v>83</v>
+      <c r="C30">
+        <v>0.05126187</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1267,13 +1120,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0.05550001</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1281,13 +1134,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>0.0758945</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1295,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>0.08811587999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1309,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>0.10941868</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1323,13 +1176,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>0.12045801</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1337,13 +1190,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>0.15548506</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1351,13 +1204,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>0.19113771</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1365,13 +1218,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>0.20007711</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1379,13 +1232,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>0.25293672</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1393,13 +1246,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>0.26314936</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1407,13 +1260,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>0.53584756</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1421,13 +1274,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>1.54502813</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1435,13 +1288,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>1.93371657</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1449,13 +1302,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>13.7198279</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1463,13 +1316,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>13.90624412</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1477,13 +1330,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>143.3942793</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1491,13 +1344,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>2.21144141</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1505,13 +1358,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>29.66943586</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1519,13 +1372,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>3.29766541</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1533,13 +1386,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>4.75573607</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1547,13 +1400,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>7.26531293</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
